--- a/result/both 1.xlsx
+++ b/result/both 1.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -477,7 +477,7 @@
         <v>Get 3 or more Art Heist icons to advance to the 'Pick a Forgery' Bonus Round. Prove you're more than a common street hoodlum by picking the forgery and you will have found the right buyer for your painting.</v>
       </c>
       <c r="B6" t="str">
-        <v>"Хуурамчийг сонгох" бонус үе рүү дээшлэхийн тулд 3 эсвэл түүнээс дээш Урлагийн бүтээлийн хулгайн дүрсийг аваарай. Хуурамч бүтээлийг сонгоод өөрийгөө гудамжны дээрэмчнээс илүү гэдгээ баталж чадвал зурагтаа тохирох худалдан авагч олох болно.</v>
+        <v>'Хуурамчийг сонгох' бонус үе рүү дээшлэхийн тулд 3 эсвэл түүнээс дээш Урлагийн бүтээлийн хулгайн дүрсийг аваарай. Хуурамч бүтээлийг сонгоод өөрийгөө гудамжны дээрэмчнээс илүү гэдгээ баталж чадвал зурагтаа тохирох худалдан авагч олох болно.</v>
       </c>
       <c r="C6" t="str">
         <v/>
@@ -547,13 +547,13 @@
         <v>At least 4 of any of the Scatter Masterpiece paintings anywhere on the reels will begin a heist for that painting! The Masterpiece paintings have a purple background.</v>
       </c>
       <c r="B11" t="str">
-        <v>Reel дээрх 'Скаттер бүтээл"-ийн аль ч зургийн дор хаяж 4 нь тухайн зургийн хулгайг эхлүүлэх болно! Шилдэг бүтээл зургууд нь нил ягаан дэвсгэртэй байна.</v>
+        <v>Reel дээрх 'Скаттер бүтээл'-ийн аль ч зургийн дор хаяж 4 нь тухайн зургийн хулгайг эхлүүлэх болно! Шилдэг бүтээл зургууд нь нил ягаан дэвсгэртэй байна.</v>
       </c>
       <c r="C11" t="str">
-        <v>Reel дээрх 'Скаттер бүтээл"-ийн аль ч зургийн дор хаяж 4 нь тухайн зургийн хулгайг эхлүүлэх болно! Шилдэг бүтээл зургууд нь нил ягаан дэвсгэртэй байна.</v>
+        <v>Reel дээрх 'Скаттер бүтээл'-ийн аль ч зургийн дор хаяж 4 нь тухайн зургийн хулгайг эхлүүлэх болно! Шилдэг бүтээл зургууд нь нил ягаан дэвсгэртэй байна.</v>
       </c>
       <c r="D11" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -567,7 +567,7 @@
         <v>Та Парисын Лувраас дэлхийн хамгийн алдартай уран зургийг хулгайлах оролдлого хийхээр шийдсэн. Таныг түүхийн номонд бичих - аль эсвэл шоронд хийх шийдэмгий зорилго!</v>
       </c>
       <c r="D12" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -581,7 +581,7 @@
         <v>ДАЛАЙН ЭРЭГ!</v>
       </c>
       <c r="D13" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -595,7 +595,7 @@
         <v>Тайван сууж сайхан өнгөрүүлээрэй...</v>
       </c>
       <c r="D14" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -609,7 +609,7 @@
         <v>Та далайн эрэгт хүрч ирлээ!</v>
       </c>
       <c r="D15" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -623,7 +623,7 @@
         <v>Мөн том шуудай мөнгө</v>
       </c>
       <c r="D16" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -637,7 +637,7 @@
         <v>(Хар зах)</v>
       </c>
       <c r="D17" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="18">
@@ -651,7 +651,7 @@
         <v>Замын хаалт!</v>
       </c>
       <c r="D18" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="19">
@@ -665,7 +665,7 @@
         <v>Урлагийн бүтээлийн хулгайн урамшууллыг анхааралтай ажиглаарай!</v>
       </c>
       <c r="D19" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="20">
@@ -679,7 +679,7 @@
         <v>ЗУГААТАЙ тоглох</v>
       </c>
       <c r="D20" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="21">
@@ -693,7 +693,7 @@
         <v>БОДИТООР тоглох</v>
       </c>
       <c r="D21" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="22">
@@ -707,7 +707,7 @@
         <v>Итгэмээргүй даалгавар</v>
       </c>
       <c r="D22" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="23">
@@ -721,7 +721,7 @@
         <v>Гүйгээрэй Раул гүйгээрэй</v>
       </c>
       <c r="D23" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="24">
@@ -735,7 +735,7 @@
         <v>Мөнгөтэй эрхэм</v>
       </c>
       <c r="D24" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="25">
@@ -749,7 +749,7 @@
         <v>Аз жаргалгүй биеэ үнэлэгч</v>
       </c>
       <c r="D25" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="26">
@@ -763,7 +763,7 @@
         <v>Гүн унагах</v>
       </c>
       <c r="D26" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="27">
@@ -777,7 +777,7 @@
         <v>Би Тарзан чи яв!</v>
       </c>
       <c r="D27" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="28">
@@ -791,7 +791,7 @@
         <v>Мона Реми</v>
       </c>
       <c r="D28" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="29">
@@ -805,7 +805,7 @@
         <v>Гүйгээрэй Реми гүйгээрэй</v>
       </c>
       <c r="D29" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         <v>Тэр хүнд биш</v>
       </c>
       <c r="D30" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="31">
@@ -833,7 +833,7 @@
         <v>Таагүй аялал</v>
       </c>
       <c r="D31" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="32">
@@ -847,7 +847,7 @@
         <v>Chariot du Paddy</v>
       </c>
       <c r="D32" t="str">
-        <v>No correction needed.</v>
+        <v/>
       </c>
     </row>
     <row r="33">
@@ -855,10 +855,10 @@
         <v>Sacre Bleu!</v>
       </c>
       <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
         <v>Sacre Bleu!</v>
-      </c>
-      <c r="C33" t="str">
-        <v/>
       </c>
       <c r="D33" t="str">
         <v/>
@@ -869,10 +869,10 @@
         <v>Gendarme Alarm</v>
       </c>
       <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
         <v>Gendarme Alarm</v>
-      </c>
-      <c r="C34" t="str">
-        <v/>
       </c>
       <c r="D34" t="str">
         <v/>
@@ -883,10 +883,10 @@
         <v>Цагдаагийн дохиолол</v>
       </c>
       <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
         <v>Цагдаагийн дохиолол</v>
-      </c>
-      <c r="C35" t="str">
-        <v/>
       </c>
       <c r="D35" t="str">
         <v/>
@@ -897,18 +897,32 @@
         <v>The Getaway</v>
       </c>
       <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v>The Getaway</v>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
         <v>Зугтаа</v>
       </c>
-      <c r="C36" t="str">
-        <v/>
-      </c>
-      <c r="D36" t="str">
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v>Зугтаа</v>
+      </c>
+      <c r="D37" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D36"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D37"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/result/both 1.xlsx
+++ b/result/both 1.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,7 +435,7 @@
         <v>Line up Remy and Raoul with The sack of cash to continue!</v>
       </c>
       <c r="B3" t="str">
-        <v>Үргэлжлүүлэхийн тулд Реми, Раул хоёрыг шуудайтай мөнгөтэй жагсаа!</v>
+        <v>Реми, Раул хоёрыг шуудайтай мөнгөтэй жагсаа!</v>
       </c>
       <c r="C3" t="str">
         <v/>
@@ -550,7 +550,7 @@
         <v>Reel дээрх 'Скаттер бүтээл'-ийн аль ч зургийн дор хаяж 4 нь тухайн зургийн хулгайг эхлүүлэх болно! Шилдэг бүтээл зургууд нь нил ягаан дэвсгэртэй байна.</v>
       </c>
       <c r="C11" t="str">
-        <v>Reel дээрх 'Скаттер бүтээл'-ийн аль ч зургийн дор хаяж 4 нь тухайн зургийн хулгайг эхлүүлэх болно! Шилдэг бүтээл зургууд нь нил ягаан дэвсгэртэй байна.</v>
+        <v/>
       </c>
       <c r="D11" t="str">
         <v/>
@@ -564,7 +564,7 @@
         <v>Та Парисын Лувраас дэлхийн хамгийн алдартай уран зургийг хулгайлах оролдлого хийхээр шийдсэн. Таныг түүхийн номонд бичих - аль эсвэл шоронд хийх шийдэмгий зорилго!</v>
       </c>
       <c r="C12" t="str">
-        <v>Та Парисын Лувраас дэлхийн хамгийн алдартай уран зургийг хулгайлах оролдлого хийхээр шийдсэн. Таныг түүхийн номонд бичих - аль эсвэл шоронд хийх шийдэмгий зорилго!</v>
+        <v/>
       </c>
       <c r="D12" t="str">
         <v/>
@@ -578,7 +578,7 @@
         <v>ДАЛАЙН ЭРЭГ!</v>
       </c>
       <c r="C13" t="str">
-        <v>ДАЛАЙН ЭРЭГ!</v>
+        <v/>
       </c>
       <c r="D13" t="str">
         <v/>
@@ -592,7 +592,7 @@
         <v>Тайван сууж сайхан өнгөрүүлээрэй...</v>
       </c>
       <c r="C14" t="str">
-        <v>Тайван сууж сайхан өнгөрүүлээрэй...</v>
+        <v/>
       </c>
       <c r="D14" t="str">
         <v/>
@@ -606,7 +606,7 @@
         <v>Та далайн эрэгт хүрч ирлээ!</v>
       </c>
       <c r="C15" t="str">
-        <v>Та далайн эрэгт хүрч ирлээ!</v>
+        <v/>
       </c>
       <c r="D15" t="str">
         <v/>
@@ -620,7 +620,7 @@
         <v>Мөн том шуудай мөнгө</v>
       </c>
       <c r="C16" t="str">
-        <v>Мөн том шуудай мөнгө</v>
+        <v/>
       </c>
       <c r="D16" t="str">
         <v/>
@@ -634,7 +634,7 @@
         <v>(Хар зах)</v>
       </c>
       <c r="C17" t="str">
-        <v>(Хар зах)</v>
+        <v/>
       </c>
       <c r="D17" t="str">
         <v/>
@@ -648,7 +648,7 @@
         <v>Замын хаалт!</v>
       </c>
       <c r="C18" t="str">
-        <v>Замын хаалт!</v>
+        <v/>
       </c>
       <c r="D18" t="str">
         <v/>
@@ -662,7 +662,7 @@
         <v>Урлагийн бүтээлийн хулгайн урамшууллыг анхааралтай ажиглаарай!</v>
       </c>
       <c r="C19" t="str">
-        <v>Урлагийн бүтээлийн хулгайн урамшууллыг анхааралтай ажиглаарай!</v>
+        <v/>
       </c>
       <c r="D19" t="str">
         <v/>
@@ -676,7 +676,7 @@
         <v>ЗУГААТАЙ тоглох</v>
       </c>
       <c r="C20" t="str">
-        <v>ЗУГААТАЙ тоглох</v>
+        <v/>
       </c>
       <c r="D20" t="str">
         <v/>
@@ -690,7 +690,7 @@
         <v>БОДИТООР тоглох</v>
       </c>
       <c r="C21" t="str">
-        <v>БОДИТООР тоглох</v>
+        <v/>
       </c>
       <c r="D21" t="str">
         <v/>
@@ -704,7 +704,7 @@
         <v>Итгэмээргүй даалгавар</v>
       </c>
       <c r="C22" t="str">
-        <v>Итгэмээргүй даалгавар</v>
+        <v/>
       </c>
       <c r="D22" t="str">
         <v/>
@@ -718,7 +718,7 @@
         <v>Гүйгээрэй Раул гүйгээрэй</v>
       </c>
       <c r="C23" t="str">
-        <v>Гүйгээрэй Раул гүйгээрэй</v>
+        <v/>
       </c>
       <c r="D23" t="str">
         <v/>
@@ -732,7 +732,7 @@
         <v>Мөнгөтэй эрхэм</v>
       </c>
       <c r="C24" t="str">
-        <v>Мөнгөтэй эрхэм</v>
+        <v/>
       </c>
       <c r="D24" t="str">
         <v/>
@@ -746,7 +746,7 @@
         <v>Аз жаргалгүй биеэ үнэлэгч</v>
       </c>
       <c r="C25" t="str">
-        <v>Аз жаргалгүй биеэ үнэлэгч</v>
+        <v/>
       </c>
       <c r="D25" t="str">
         <v/>
@@ -760,7 +760,7 @@
         <v>Гүн унагах</v>
       </c>
       <c r="C26" t="str">
-        <v>Гүн унагах</v>
+        <v/>
       </c>
       <c r="D26" t="str">
         <v/>
@@ -774,7 +774,7 @@
         <v>Би Тарзан чи яв!</v>
       </c>
       <c r="C27" t="str">
-        <v>Би Тарзан чи яв!</v>
+        <v/>
       </c>
       <c r="D27" t="str">
         <v/>
@@ -788,7 +788,7 @@
         <v>Мона Реми</v>
       </c>
       <c r="C28" t="str">
-        <v>Мона Реми</v>
+        <v/>
       </c>
       <c r="D28" t="str">
         <v/>
@@ -802,7 +802,7 @@
         <v>Гүйгээрэй Реми гүйгээрэй</v>
       </c>
       <c r="C29" t="str">
-        <v>Гүйгээрэй Реми гүйгээрэй</v>
+        <v/>
       </c>
       <c r="D29" t="str">
         <v/>
@@ -816,7 +816,7 @@
         <v>Тэр хүнд биш</v>
       </c>
       <c r="C30" t="str">
-        <v>Тэр хүнд биш</v>
+        <v/>
       </c>
       <c r="D30" t="str">
         <v/>
@@ -830,7 +830,7 @@
         <v>Таагүй аялал</v>
       </c>
       <c r="C31" t="str">
-        <v>Таагүй аялал</v>
+        <v/>
       </c>
       <c r="D31" t="str">
         <v/>
@@ -844,7 +844,7 @@
         <v>Chariot du Paddy</v>
       </c>
       <c r="C32" t="str">
-        <v>Chariot du Paddy</v>
+        <v/>
       </c>
       <c r="D32" t="str">
         <v/>
@@ -855,10 +855,10 @@
         <v>Sacre Bleu!</v>
       </c>
       <c r="B33" t="str">
-        <v/>
+        <v>Sacre Bleu!</v>
       </c>
       <c r="C33" t="str">
-        <v>Sacre Bleu!</v>
+        <v/>
       </c>
       <c r="D33" t="str">
         <v/>
@@ -869,10 +869,10 @@
         <v>Gendarme Alarm</v>
       </c>
       <c r="B34" t="str">
-        <v/>
+        <v>Gendarme Alarm</v>
       </c>
       <c r="C34" t="str">
-        <v>Gendarme Alarm</v>
+        <v/>
       </c>
       <c r="D34" t="str">
         <v/>
@@ -883,10 +883,10 @@
         <v>Цагдаагийн дохиолол</v>
       </c>
       <c r="B35" t="str">
-        <v/>
+        <v>Цагдаагийн дохиолол</v>
       </c>
       <c r="C35" t="str">
-        <v>Цагдаагийн дохиолол</v>
+        <v/>
       </c>
       <c r="D35" t="str">
         <v/>
@@ -897,32 +897,18 @@
         <v>The Getaway</v>
       </c>
       <c r="B36" t="str">
-        <v/>
+        <v>Зугтаа</v>
       </c>
       <c r="C36" t="str">
-        <v>The Getaway</v>
+        <v/>
       </c>
       <c r="D36" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>Зугтаа</v>
-      </c>
-      <c r="B37" t="str">
-        <v/>
-      </c>
-      <c r="C37" t="str">
-        <v>Зугтаа</v>
-      </c>
-      <c r="D37" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D37"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D36"/>
   </ignoredErrors>
 </worksheet>
 </file>